--- a/Methods/testPoints.xlsx
+++ b/Methods/testPoints.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>Real_X</t>
   </si>
@@ -41,100 +41,154 @@
     <t>LSC_HoneyPot</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>2.75</t>
+  </si>
+  <si>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>-54.00</t>
+  </si>
+  <si>
+    <t>-47.00</t>
   </si>
   <si>
     <t>-45.00</t>
   </si>
   <si>
+    <t>-59.00</t>
+  </si>
+  <si>
+    <t>-53.00</t>
+  </si>
+  <si>
+    <t>-55.00</t>
+  </si>
+  <si>
+    <t>-46.00</t>
+  </si>
+  <si>
+    <t>-48.00</t>
+  </si>
+  <si>
+    <t>-60.00</t>
+  </si>
+  <si>
+    <t>-52.00</t>
+  </si>
+  <si>
     <t>-50.00</t>
   </si>
   <si>
+    <t>-56.00</t>
+  </si>
+  <si>
+    <t>-44.00</t>
+  </si>
+  <si>
+    <t>-58.00</t>
+  </si>
+  <si>
+    <t>-51.00</t>
+  </si>
+  <si>
+    <t>-62.00</t>
+  </si>
+  <si>
     <t>-49.00</t>
   </si>
   <si>
-    <t>-60.00</t>
-  </si>
-  <si>
-    <t>-52.00</t>
-  </si>
-  <si>
-    <t>-44.00</t>
-  </si>
-  <si>
-    <t>-53.00</t>
+    <t>-43.00</t>
+  </si>
+  <si>
+    <t>3.85</t>
+  </si>
+  <si>
+    <t>-37.00</t>
+  </si>
+  <si>
+    <t>-36.00</t>
   </si>
   <si>
     <t>-63.00</t>
   </si>
   <si>
-    <t>-47.00</t>
-  </si>
-  <si>
-    <t>-51.00</t>
-  </si>
-  <si>
-    <t>-58.00</t>
-  </si>
-  <si>
-    <t>-48.00</t>
-  </si>
-  <si>
-    <t>-43.00</t>
-  </si>
-  <si>
-    <t>-59.00</t>
-  </si>
-  <si>
-    <t>-54.00</t>
-  </si>
-  <si>
-    <t>-56.00</t>
-  </si>
-  <si>
-    <t>-46.00</t>
+    <t>-42.00</t>
+  </si>
+  <si>
+    <t>-38.00</t>
+  </si>
+  <si>
+    <t>-64.00</t>
+  </si>
+  <si>
+    <t>-40.00</t>
+  </si>
+  <si>
+    <t>-61.00</t>
   </si>
   <si>
     <t>-57.00</t>
   </si>
   <si>
-    <t>-55.00</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>5.09</t>
-  </si>
-  <si>
-    <t>-61.00</t>
+    <t>-73.00</t>
+  </si>
+  <si>
+    <t>1.65</t>
+  </si>
+  <si>
+    <t>-41.00</t>
+  </si>
+  <si>
+    <t>4.95</t>
+  </si>
+  <si>
+    <t>0.65</t>
   </si>
   <si>
     <t>-66.00</t>
   </si>
   <si>
-    <t>4.7</t>
-  </si>
-  <si>
-    <t>0.99</t>
-  </si>
-  <si>
-    <t>-62.00</t>
-  </si>
-  <si>
-    <t>-71.00</t>
+    <t>-65.00</t>
+  </si>
+  <si>
+    <t>-69.00</t>
   </si>
   <si>
     <t>-67.00</t>
   </si>
   <si>
-    <t>-68.00</t>
-  </si>
-  <si>
     <t>-70.00</t>
+  </si>
+  <si>
+    <t>5.85</t>
+  </si>
+  <si>
+    <t>-34.00</t>
+  </si>
+  <si>
+    <t>-33.00</t>
+  </si>
+  <si>
+    <t>-35.00</t>
+  </si>
+  <si>
+    <t>7.15</t>
+  </si>
+  <si>
+    <t>-39.00</t>
+  </si>
+  <si>
+    <t>8.45</t>
+  </si>
+  <si>
+    <t>9.75</t>
+  </si>
+  <si>
+    <t>12.35</t>
+  </si>
+  <si>
+    <t>-32.00</t>
   </si>
 </sst>
 </file>
@@ -501,10 +555,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H181"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E10" activeCellId="0" pane="topLeft" sqref="E10"/>
+      <selection activeCell="J8" activeCellId="0" pane="topLeft" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
@@ -566,10 +620,10 @@
         <v>13</v>
       </c>
       <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
         <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -583,19 +637,19 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -606,22 +660,22 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -632,22 +686,22 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -658,22 +712,22 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -684,22 +738,22 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -710,22 +764,22 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -736,22 +790,22 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -762,22 +816,22 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -788,541 +842,4441 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
         <v>29</v>
       </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
         <v>30</v>
       </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s">
         <v>11</v>
       </c>
-      <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" t="s">
-        <v>24</v>
-      </c>
       <c r="H14" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
         <v>29</v>
       </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" t="s">
         <v>12</v>
       </c>
-      <c r="F15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" t="s">
-        <v>25</v>
-      </c>
       <c r="H15" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" t="s">
         <v>27</v>
-      </c>
-      <c r="H16" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
         <v>29</v>
       </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H18" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
         <v>29</v>
       </c>
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G19" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
         <v>29</v>
       </c>
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>18</v>
       </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="H20" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
         <v>30</v>
       </c>
-      <c r="C21" t="s">
-        <v>18</v>
-      </c>
       <c r="D21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" t="s">
         <v>11</v>
       </c>
-      <c r="E21" t="s">
-        <v>27</v>
-      </c>
       <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s">
         <v>32</v>
       </c>
-      <c r="G21" t="s">
-        <v>25</v>
-      </c>
       <c r="H21" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s">
         <v>11</v>
       </c>
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" t="s">
-        <v>27</v>
-      </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H23" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
         <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="H25" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F26" t="s">
         <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H26" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D27" t="s">
         <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H27" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G28" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H28" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D29" t="s">
         <v>21</v>
       </c>
       <c r="E29" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
         <v>16</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
         <v>21</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H30" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" t="s">
+        <v>37</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" t="s">
+        <v>36</v>
+      </c>
+      <c r="G46" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" t="s">
+        <v>36</v>
+      </c>
+      <c r="G47" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" t="s">
+        <v>25</v>
+      </c>
+      <c r="G49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G50" t="s">
+        <v>24</v>
+      </c>
+      <c r="H50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" t="s">
+        <v>25</v>
+      </c>
+      <c r="G51" t="s">
+        <v>24</v>
+      </c>
+      <c r="H51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" t="s">
+        <v>31</v>
+      </c>
+      <c r="G52" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" t="s">
+        <v>26</v>
+      </c>
+      <c r="F53" t="s">
+        <v>43</v>
+      </c>
+      <c r="G53" t="s">
+        <v>24</v>
+      </c>
+      <c r="H53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" t="s">
+        <v>44</v>
+      </c>
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" t="s">
+        <v>42</v>
+      </c>
+      <c r="C55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" t="s">
+        <v>26</v>
+      </c>
+      <c r="F55" t="s">
+        <v>36</v>
+      </c>
+      <c r="G55" t="s">
+        <v>26</v>
+      </c>
+      <c r="H55" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" t="s">
+        <v>26</v>
+      </c>
+      <c r="F56" t="s">
+        <v>36</v>
+      </c>
+      <c r="G56" t="s">
+        <v>26</v>
+      </c>
+      <c r="H56" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" t="s">
+        <v>42</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" t="s">
+        <v>24</v>
+      </c>
+      <c r="F57" t="s">
+        <v>31</v>
+      </c>
+      <c r="G57" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" t="s">
+        <v>26</v>
+      </c>
+      <c r="E58" t="s">
+        <v>26</v>
+      </c>
+      <c r="F58" t="s">
+        <v>25</v>
+      </c>
+      <c r="G58" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" t="s">
+        <v>42</v>
+      </c>
+      <c r="C59" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" t="s">
+        <v>24</v>
+      </c>
+      <c r="H59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60" t="s">
+        <v>18</v>
+      </c>
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" t="s">
+        <v>42</v>
+      </c>
+      <c r="C61" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" t="s">
+        <v>26</v>
+      </c>
+      <c r="F61" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" t="s">
+        <v>20</v>
+      </c>
+      <c r="H61" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>28</v>
+      </c>
+      <c r="B62" t="s">
+        <v>42</v>
+      </c>
+      <c r="C62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62" t="s">
+        <v>36</v>
+      </c>
+      <c r="G62" t="s">
+        <v>21</v>
+      </c>
+      <c r="H62" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>28</v>
+      </c>
+      <c r="B63" t="s">
+        <v>42</v>
+      </c>
+      <c r="C63" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63" t="s">
+        <v>45</v>
+      </c>
+      <c r="G63" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64" t="s">
+        <v>42</v>
+      </c>
+      <c r="C64" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64" t="s">
+        <v>46</v>
+      </c>
+      <c r="G64" t="s">
+        <v>21</v>
+      </c>
+      <c r="H64" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>28</v>
+      </c>
+      <c r="B65" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" t="s">
+        <v>24</v>
+      </c>
+      <c r="E65" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" t="s">
+        <v>34</v>
+      </c>
+      <c r="G65" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" t="s">
+        <v>42</v>
+      </c>
+      <c r="C66" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" t="s">
+        <v>17</v>
+      </c>
+      <c r="F66" t="s">
+        <v>47</v>
+      </c>
+      <c r="G66" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>28</v>
+      </c>
+      <c r="B67" t="s">
+        <v>42</v>
+      </c>
+      <c r="C67" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" t="s">
+        <v>44</v>
+      </c>
+      <c r="G67" t="s">
+        <v>37</v>
+      </c>
+      <c r="H67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>28</v>
+      </c>
+      <c r="B68" t="s">
+        <v>42</v>
+      </c>
+      <c r="C68" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" t="s">
+        <v>24</v>
+      </c>
+      <c r="E68" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" t="s">
+        <v>25</v>
+      </c>
+      <c r="G68" t="s">
+        <v>21</v>
+      </c>
+      <c r="H68" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>28</v>
+      </c>
+      <c r="B69" t="s">
+        <v>42</v>
+      </c>
+      <c r="C69" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" t="s">
+        <v>20</v>
+      </c>
+      <c r="E69" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" t="s">
+        <v>44</v>
+      </c>
+      <c r="G69" t="s">
+        <v>37</v>
+      </c>
+      <c r="H69" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70" t="s">
+        <v>42</v>
+      </c>
+      <c r="C70" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" t="s">
+        <v>26</v>
+      </c>
+      <c r="E70" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70" t="s">
+        <v>43</v>
+      </c>
+      <c r="G70" t="s">
+        <v>21</v>
+      </c>
+      <c r="H70" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>28</v>
+      </c>
+      <c r="B71" t="s">
+        <v>42</v>
+      </c>
+      <c r="C71" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71" t="s">
+        <v>36</v>
+      </c>
+      <c r="G71" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" t="s">
+        <v>48</v>
+      </c>
+      <c r="C72" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" t="s">
+        <v>19</v>
+      </c>
+      <c r="F72" t="s">
+        <v>37</v>
+      </c>
+      <c r="G72" t="s">
+        <v>32</v>
+      </c>
+      <c r="H72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" t="s">
+        <v>48</v>
+      </c>
+      <c r="C73" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" t="s">
+        <v>22</v>
+      </c>
+      <c r="H73" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" t="s">
+        <v>48</v>
+      </c>
+      <c r="C74" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" t="s">
+        <v>24</v>
+      </c>
+      <c r="E74" t="s">
+        <v>15</v>
+      </c>
+      <c r="F74" t="s">
+        <v>14</v>
+      </c>
+      <c r="G74" t="s">
+        <v>22</v>
+      </c>
+      <c r="H74" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" t="s">
+        <v>48</v>
+      </c>
+      <c r="C75" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" t="s">
+        <v>19</v>
+      </c>
+      <c r="F75" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" t="s">
+        <v>32</v>
+      </c>
+      <c r="H75" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" t="s">
+        <v>48</v>
+      </c>
+      <c r="C76" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" t="s">
+        <v>20</v>
+      </c>
+      <c r="E76" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" t="s">
+        <v>24</v>
+      </c>
+      <c r="G76" t="s">
+        <v>32</v>
+      </c>
+      <c r="H76" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" t="s">
+        <v>48</v>
+      </c>
+      <c r="C77" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" t="s">
+        <v>24</v>
+      </c>
+      <c r="E77" t="s">
+        <v>15</v>
+      </c>
+      <c r="F77" t="s">
+        <v>14</v>
+      </c>
+      <c r="G77" t="s">
+        <v>27</v>
+      </c>
+      <c r="H77" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" t="s">
+        <v>48</v>
+      </c>
+      <c r="C78" t="s">
+        <v>21</v>
+      </c>
+      <c r="D78" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" t="s">
+        <v>19</v>
+      </c>
+      <c r="F78" t="s">
+        <v>24</v>
+      </c>
+      <c r="G78" t="s">
+        <v>27</v>
+      </c>
+      <c r="H78" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" t="s">
+        <v>24</v>
+      </c>
+      <c r="E79" t="s">
+        <v>24</v>
+      </c>
+      <c r="F79" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79" t="s">
+        <v>27</v>
+      </c>
+      <c r="H79" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" t="s">
+        <v>48</v>
+      </c>
+      <c r="C80" t="s">
+        <v>37</v>
+      </c>
+      <c r="D80" t="s">
+        <v>24</v>
+      </c>
+      <c r="E80" t="s">
+        <v>19</v>
+      </c>
+      <c r="F80" t="s">
+        <v>19</v>
+      </c>
+      <c r="G80" t="s">
+        <v>32</v>
+      </c>
+      <c r="H80" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" t="s">
+        <v>48</v>
+      </c>
+      <c r="C81" t="s">
+        <v>23</v>
+      </c>
+      <c r="D81" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" t="s">
+        <v>19</v>
+      </c>
+      <c r="F81" t="s">
+        <v>14</v>
+      </c>
+      <c r="G81" t="s">
+        <v>32</v>
+      </c>
+      <c r="H81" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" t="s">
+        <v>39</v>
+      </c>
+      <c r="B82" t="s">
+        <v>48</v>
+      </c>
+      <c r="C82" t="s">
+        <v>34</v>
+      </c>
+      <c r="D82" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" t="s">
+        <v>49</v>
+      </c>
+      <c r="F82" t="s">
+        <v>36</v>
+      </c>
+      <c r="G82" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" t="s">
+        <v>39</v>
+      </c>
+      <c r="B83" t="s">
+        <v>48</v>
+      </c>
+      <c r="C83" t="s">
+        <v>44</v>
+      </c>
+      <c r="D83" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" t="s">
+        <v>50</v>
+      </c>
+      <c r="F83" t="s">
+        <v>31</v>
+      </c>
+      <c r="G83" t="s">
+        <v>14</v>
+      </c>
+      <c r="H83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" t="s">
+        <v>39</v>
+      </c>
+      <c r="B84" t="s">
+        <v>48</v>
+      </c>
+      <c r="C84" t="s">
+        <v>25</v>
+      </c>
+      <c r="D84" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" t="s">
+        <v>49</v>
+      </c>
+      <c r="F84" t="s">
+        <v>13</v>
+      </c>
+      <c r="G84" t="s">
+        <v>26</v>
+      </c>
+      <c r="H84" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" t="s">
+        <v>39</v>
+      </c>
+      <c r="B85" t="s">
+        <v>48</v>
+      </c>
+      <c r="C85" t="s">
+        <v>36</v>
+      </c>
+      <c r="D85" t="s">
+        <v>16</v>
+      </c>
+      <c r="E85" t="s">
+        <v>49</v>
+      </c>
+      <c r="F85" t="s">
+        <v>36</v>
+      </c>
+      <c r="G85" t="s">
+        <v>26</v>
+      </c>
+      <c r="H85" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" t="s">
+        <v>39</v>
+      </c>
+      <c r="B86" t="s">
+        <v>48</v>
+      </c>
+      <c r="C86" t="s">
+        <v>31</v>
+      </c>
+      <c r="D86" t="s">
+        <v>16</v>
+      </c>
+      <c r="E86" t="s">
+        <v>51</v>
+      </c>
+      <c r="F86" t="s">
+        <v>18</v>
+      </c>
+      <c r="G86" t="s">
+        <v>26</v>
+      </c>
+      <c r="H86" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" t="s">
+        <v>39</v>
+      </c>
+      <c r="B87" t="s">
+        <v>48</v>
+      </c>
+      <c r="C87" t="s">
+        <v>31</v>
+      </c>
+      <c r="D87" t="s">
+        <v>16</v>
+      </c>
+      <c r="E87" t="s">
+        <v>49</v>
+      </c>
+      <c r="F87" t="s">
+        <v>36</v>
+      </c>
+      <c r="G87" t="s">
+        <v>26</v>
+      </c>
+      <c r="H87" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" t="s">
+        <v>39</v>
+      </c>
+      <c r="B88" t="s">
+        <v>48</v>
+      </c>
+      <c r="C88" t="s">
+        <v>44</v>
+      </c>
+      <c r="D88" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" t="s">
+        <v>49</v>
+      </c>
+      <c r="F88" t="s">
+        <v>36</v>
+      </c>
+      <c r="G88" t="s">
+        <v>26</v>
+      </c>
+      <c r="H88" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" t="s">
+        <v>39</v>
+      </c>
+      <c r="B89" t="s">
+        <v>48</v>
+      </c>
+      <c r="C89" t="s">
+        <v>31</v>
+      </c>
+      <c r="D89" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" t="s">
+        <v>49</v>
+      </c>
+      <c r="F89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G89" t="s">
+        <v>20</v>
+      </c>
+      <c r="H89" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" t="s">
+        <v>39</v>
+      </c>
+      <c r="B90" t="s">
+        <v>48</v>
+      </c>
+      <c r="C90" t="s">
+        <v>34</v>
+      </c>
+      <c r="D90" t="s">
+        <v>16</v>
+      </c>
+      <c r="E90" t="s">
+        <v>50</v>
+      </c>
+      <c r="F90" t="s">
+        <v>18</v>
+      </c>
+      <c r="G90" t="s">
+        <v>14</v>
+      </c>
+      <c r="H90" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" t="s">
+        <v>39</v>
+      </c>
+      <c r="B91" t="s">
+        <v>48</v>
+      </c>
+      <c r="C91" t="s">
+        <v>34</v>
+      </c>
+      <c r="D91" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" t="s">
+        <v>50</v>
+      </c>
+      <c r="F91" t="s">
+        <v>25</v>
+      </c>
+      <c r="G91" t="s">
+        <v>26</v>
+      </c>
+      <c r="H91" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" t="s">
+        <v>28</v>
+      </c>
+      <c r="B92" t="s">
+        <v>48</v>
+      </c>
+      <c r="C92" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" t="s">
+        <v>19</v>
+      </c>
+      <c r="E92" t="s">
+        <v>40</v>
+      </c>
+      <c r="F92" t="s">
+        <v>15</v>
+      </c>
+      <c r="G92" t="s">
+        <v>49</v>
+      </c>
+      <c r="H92" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" t="s">
+        <v>28</v>
+      </c>
+      <c r="B93" t="s">
+        <v>48</v>
+      </c>
+      <c r="C93" t="s">
+        <v>21</v>
+      </c>
+      <c r="D93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E93" t="s">
+        <v>22</v>
+      </c>
+      <c r="F93" t="s">
+        <v>14</v>
+      </c>
+      <c r="G93" t="s">
+        <v>49</v>
+      </c>
+      <c r="H93" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" t="s">
+        <v>28</v>
+      </c>
+      <c r="B94" t="s">
+        <v>48</v>
+      </c>
+      <c r="C94" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" t="s">
+        <v>24</v>
+      </c>
+      <c r="E94" t="s">
+        <v>22</v>
+      </c>
+      <c r="F94" t="s">
+        <v>14</v>
+      </c>
+      <c r="G94" t="s">
+        <v>50</v>
+      </c>
+      <c r="H94" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" t="s">
+        <v>28</v>
+      </c>
+      <c r="B95" t="s">
+        <v>48</v>
+      </c>
+      <c r="C95" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" t="s">
+        <v>20</v>
+      </c>
+      <c r="E95" t="s">
+        <v>32</v>
+      </c>
+      <c r="F95" t="s">
+        <v>14</v>
+      </c>
+      <c r="G95" t="s">
+        <v>49</v>
+      </c>
+      <c r="H95" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" t="s">
+        <v>28</v>
+      </c>
+      <c r="B96" t="s">
+        <v>48</v>
+      </c>
+      <c r="C96" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" t="s">
+        <v>24</v>
+      </c>
+      <c r="E96" t="s">
+        <v>22</v>
+      </c>
+      <c r="F96" t="s">
+        <v>21</v>
+      </c>
+      <c r="G96" t="s">
+        <v>51</v>
+      </c>
+      <c r="H96" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" t="s">
+        <v>28</v>
+      </c>
+      <c r="B97" t="s">
+        <v>48</v>
+      </c>
+      <c r="C97" t="s">
+        <v>21</v>
+      </c>
+      <c r="D97" t="s">
+        <v>20</v>
+      </c>
+      <c r="E97" t="s">
+        <v>27</v>
+      </c>
+      <c r="F97" t="s">
+        <v>15</v>
+      </c>
+      <c r="G97" t="s">
+        <v>49</v>
+      </c>
+      <c r="H97" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" t="s">
+        <v>28</v>
+      </c>
+      <c r="B98" t="s">
+        <v>48</v>
+      </c>
+      <c r="C98" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" t="s">
+        <v>27</v>
+      </c>
+      <c r="F98" t="s">
+        <v>37</v>
+      </c>
+      <c r="G98" t="s">
+        <v>49</v>
+      </c>
+      <c r="H98" t="s">
         <v>33</v>
       </c>
-      <c r="B31" t="s">
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" t="s">
+        <v>28</v>
+      </c>
+      <c r="B99" t="s">
+        <v>48</v>
+      </c>
+      <c r="C99" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" t="s">
+        <v>26</v>
+      </c>
+      <c r="E99" t="s">
+        <v>22</v>
+      </c>
+      <c r="F99" t="s">
+        <v>37</v>
+      </c>
+      <c r="G99" t="s">
+        <v>51</v>
+      </c>
+      <c r="H99" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" t="s">
+        <v>28</v>
+      </c>
+      <c r="B100" t="s">
+        <v>48</v>
+      </c>
+      <c r="C100" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" t="s">
+        <v>26</v>
+      </c>
+      <c r="E100" t="s">
+        <v>27</v>
+      </c>
+      <c r="F100" t="s">
+        <v>14</v>
+      </c>
+      <c r="G100" t="s">
+        <v>49</v>
+      </c>
+      <c r="H100" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" t="s">
+        <v>28</v>
+      </c>
+      <c r="B101" t="s">
+        <v>48</v>
+      </c>
+      <c r="C101" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" t="s">
+        <v>20</v>
+      </c>
+      <c r="E101" t="s">
+        <v>16</v>
+      </c>
+      <c r="F101" t="s">
+        <v>14</v>
+      </c>
+      <c r="G101" t="s">
+        <v>49</v>
+      </c>
+      <c r="H101" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" t="s">
+        <v>41</v>
+      </c>
+      <c r="B102" t="s">
+        <v>52</v>
+      </c>
+      <c r="C102" t="s">
+        <v>37</v>
+      </c>
+      <c r="D102" t="s">
+        <v>19</v>
+      </c>
+      <c r="E102" t="s">
+        <v>32</v>
+      </c>
+      <c r="F102" t="s">
+        <v>17</v>
+      </c>
+      <c r="G102" t="s">
+        <v>20</v>
+      </c>
+      <c r="H102" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" t="s">
+        <v>41</v>
+      </c>
+      <c r="B103" t="s">
+        <v>52</v>
+      </c>
+      <c r="C103" t="s">
+        <v>37</v>
+      </c>
+      <c r="D103" t="s">
+        <v>14</v>
+      </c>
+      <c r="E103" t="s">
+        <v>32</v>
+      </c>
+      <c r="F103" t="s">
+        <v>24</v>
+      </c>
+      <c r="G103" t="s">
+        <v>26</v>
+      </c>
+      <c r="H103" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" t="s">
+        <v>41</v>
+      </c>
+      <c r="B104" t="s">
+        <v>52</v>
+      </c>
+      <c r="C104" t="s">
+        <v>18</v>
+      </c>
+      <c r="D104" t="s">
+        <v>19</v>
+      </c>
+      <c r="E104" t="s">
+        <v>40</v>
+      </c>
+      <c r="F104" t="s">
+        <v>24</v>
+      </c>
+      <c r="G104" t="s">
+        <v>20</v>
+      </c>
+      <c r="H104" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" t="s">
+        <v>41</v>
+      </c>
+      <c r="B105" t="s">
+        <v>52</v>
+      </c>
+      <c r="C105" t="s">
+        <v>23</v>
+      </c>
+      <c r="D105" t="s">
+        <v>19</v>
+      </c>
+      <c r="E105" t="s">
+        <v>32</v>
+      </c>
+      <c r="F105" t="s">
+        <v>24</v>
+      </c>
+      <c r="G105" t="s">
+        <v>20</v>
+      </c>
+      <c r="H105" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" t="s">
+        <v>41</v>
+      </c>
+      <c r="B106" t="s">
+        <v>52</v>
+      </c>
+      <c r="C106" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106" t="s">
+        <v>19</v>
+      </c>
+      <c r="E106" t="s">
+        <v>32</v>
+      </c>
+      <c r="F106" t="s">
+        <v>19</v>
+      </c>
+      <c r="G106" t="s">
+        <v>24</v>
+      </c>
+      <c r="H106" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" t="s">
+        <v>41</v>
+      </c>
+      <c r="B107" t="s">
+        <v>52</v>
+      </c>
+      <c r="C107" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107" t="s">
+        <v>32</v>
+      </c>
+      <c r="F107" t="s">
+        <v>15</v>
+      </c>
+      <c r="G107" t="s">
+        <v>26</v>
+      </c>
+      <c r="H107" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" t="s">
+        <v>41</v>
+      </c>
+      <c r="B108" t="s">
+        <v>52</v>
+      </c>
+      <c r="C108" t="s">
+        <v>21</v>
+      </c>
+      <c r="D108" t="s">
+        <v>14</v>
+      </c>
+      <c r="E108" t="s">
+        <v>32</v>
+      </c>
+      <c r="F108" t="s">
+        <v>26</v>
+      </c>
+      <c r="G108" t="s">
+        <v>20</v>
+      </c>
+      <c r="H108" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" t="s">
+        <v>41</v>
+      </c>
+      <c r="B109" t="s">
+        <v>52</v>
+      </c>
+      <c r="C109" t="s">
+        <v>21</v>
+      </c>
+      <c r="D109" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109" t="s">
+        <v>32</v>
+      </c>
+      <c r="F109" t="s">
+        <v>26</v>
+      </c>
+      <c r="G109" t="s">
+        <v>20</v>
+      </c>
+      <c r="H109" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" t="s">
+        <v>41</v>
+      </c>
+      <c r="B110" t="s">
+        <v>52</v>
+      </c>
+      <c r="C110" t="s">
+        <v>21</v>
+      </c>
+      <c r="D110" t="s">
+        <v>14</v>
+      </c>
+      <c r="E110" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" t="s">
+        <v>26</v>
+      </c>
+      <c r="G110" t="s">
+        <v>26</v>
+      </c>
+      <c r="H110" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" t="s">
+        <v>41</v>
+      </c>
+      <c r="B111" t="s">
+        <v>52</v>
+      </c>
+      <c r="C111" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111" t="s">
+        <v>32</v>
+      </c>
+      <c r="F111" t="s">
+        <v>26</v>
+      </c>
+      <c r="G111" t="s">
+        <v>26</v>
+      </c>
+      <c r="H111" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" t="s">
+        <v>41</v>
+      </c>
+      <c r="B112" t="s">
+        <v>54</v>
+      </c>
+      <c r="C112" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" t="s">
+        <v>19</v>
+      </c>
+      <c r="F112" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" t="s">
+        <v>35</v>
+      </c>
+      <c r="H112" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" t="s">
+        <v>41</v>
+      </c>
+      <c r="B113" t="s">
+        <v>54</v>
+      </c>
+      <c r="C113" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113" t="s">
+        <v>16</v>
+      </c>
+      <c r="E113" t="s">
+        <v>19</v>
+      </c>
+      <c r="F113" t="s">
+        <v>20</v>
+      </c>
+      <c r="G113" t="s">
+        <v>35</v>
+      </c>
+      <c r="H113" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" t="s">
+        <v>41</v>
+      </c>
+      <c r="B114" t="s">
+        <v>54</v>
+      </c>
+      <c r="C114" t="s">
+        <v>21</v>
+      </c>
+      <c r="D114" t="s">
+        <v>11</v>
+      </c>
+      <c r="E114" t="s">
+        <v>10</v>
+      </c>
+      <c r="F114" t="s">
+        <v>26</v>
+      </c>
+      <c r="G114" t="s">
+        <v>35</v>
+      </c>
+      <c r="H114" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" t="s">
+        <v>41</v>
+      </c>
+      <c r="B115" t="s">
+        <v>54</v>
+      </c>
+      <c r="C115" t="s">
+        <v>14</v>
+      </c>
+      <c r="D115" t="s">
+        <v>16</v>
+      </c>
+      <c r="E115" t="s">
+        <v>19</v>
+      </c>
+      <c r="F115" t="s">
+        <v>20</v>
+      </c>
+      <c r="G115" t="s">
+        <v>35</v>
+      </c>
+      <c r="H115" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" t="s">
+        <v>41</v>
+      </c>
+      <c r="B116" t="s">
+        <v>54</v>
+      </c>
+      <c r="C116" t="s">
+        <v>10</v>
+      </c>
+      <c r="D116" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116" t="s">
+        <v>14</v>
+      </c>
+      <c r="F116" t="s">
+        <v>26</v>
+      </c>
+      <c r="G116" t="s">
+        <v>40</v>
+      </c>
+      <c r="H116" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" t="s">
+        <v>41</v>
+      </c>
+      <c r="B117" t="s">
+        <v>54</v>
+      </c>
+      <c r="C117" t="s">
+        <v>21</v>
+      </c>
+      <c r="D117" t="s">
+        <v>11</v>
+      </c>
+      <c r="E117" t="s">
+        <v>19</v>
+      </c>
+      <c r="F117" t="s">
+        <v>15</v>
+      </c>
+      <c r="G117" t="s">
+        <v>35</v>
+      </c>
+      <c r="H117" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" t="s">
+        <v>41</v>
+      </c>
+      <c r="B118" t="s">
+        <v>54</v>
+      </c>
+      <c r="C118" t="s">
+        <v>10</v>
+      </c>
+      <c r="D118" t="s">
+        <v>16</v>
+      </c>
+      <c r="E118" t="s">
+        <v>19</v>
+      </c>
+      <c r="F118" t="s">
+        <v>26</v>
+      </c>
+      <c r="G118" t="s">
+        <v>35</v>
+      </c>
+      <c r="H118" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" t="s">
+        <v>41</v>
+      </c>
+      <c r="B119" t="s">
+        <v>54</v>
+      </c>
+      <c r="C119" t="s">
+        <v>21</v>
+      </c>
+      <c r="D119" t="s">
+        <v>22</v>
+      </c>
+      <c r="E119" t="s">
+        <v>19</v>
+      </c>
+      <c r="F119" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" t="s">
+        <v>35</v>
+      </c>
+      <c r="H119" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" t="s">
+        <v>41</v>
+      </c>
+      <c r="B120" t="s">
+        <v>54</v>
+      </c>
+      <c r="C120" t="s">
+        <v>21</v>
+      </c>
+      <c r="D120" t="s">
+        <v>11</v>
+      </c>
+      <c r="E120" t="s">
+        <v>14</v>
+      </c>
+      <c r="F120" t="s">
+        <v>17</v>
+      </c>
+      <c r="G120" t="s">
+        <v>35</v>
+      </c>
+      <c r="H120" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" t="s">
+        <v>41</v>
+      </c>
+      <c r="B121" t="s">
+        <v>54</v>
+      </c>
+      <c r="C121" t="s">
+        <v>10</v>
+      </c>
+      <c r="D121" t="s">
+        <v>17</v>
+      </c>
+      <c r="E121" t="s">
+        <v>14</v>
+      </c>
+      <c r="F121" t="s">
+        <v>26</v>
+      </c>
+      <c r="G121" t="s">
+        <v>35</v>
+      </c>
+      <c r="H121" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" t="s">
+        <v>28</v>
+      </c>
+      <c r="B122" t="s">
+        <v>55</v>
+      </c>
+      <c r="C122" t="s">
+        <v>25</v>
+      </c>
+      <c r="D122" t="s">
+        <v>29</v>
+      </c>
+      <c r="E122" t="s">
+        <v>26</v>
+      </c>
+      <c r="F122" t="s">
+        <v>26</v>
+      </c>
+      <c r="G122" t="s">
+        <v>13</v>
+      </c>
+      <c r="H122" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" t="s">
+        <v>28</v>
+      </c>
+      <c r="B123" t="s">
+        <v>55</v>
+      </c>
+      <c r="C123" t="s">
+        <v>36</v>
+      </c>
+      <c r="D123" t="s">
+        <v>29</v>
+      </c>
+      <c r="E123" t="s">
+        <v>26</v>
+      </c>
+      <c r="F123" t="s">
+        <v>16</v>
+      </c>
+      <c r="G123" t="s">
+        <v>37</v>
+      </c>
+      <c r="H123" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" t="s">
+        <v>28</v>
+      </c>
+      <c r="B124" t="s">
+        <v>55</v>
+      </c>
+      <c r="C124" t="s">
         <v>34</v>
       </c>
-      <c r="C31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="D124" t="s">
+        <v>33</v>
+      </c>
+      <c r="E124" t="s">
+        <v>26</v>
+      </c>
+      <c r="F124" t="s">
+        <v>17</v>
+      </c>
+      <c r="G124" t="s">
+        <v>23</v>
+      </c>
+      <c r="H124" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" t="s">
+        <v>28</v>
+      </c>
+      <c r="B125" t="s">
+        <v>55</v>
+      </c>
+      <c r="C125" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125" t="s">
+        <v>29</v>
+      </c>
+      <c r="E125" t="s">
+        <v>17</v>
+      </c>
+      <c r="F125" t="s">
+        <v>17</v>
+      </c>
+      <c r="G125" t="s">
+        <v>37</v>
+      </c>
+      <c r="H125" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" t="s">
+        <v>28</v>
+      </c>
+      <c r="B126" t="s">
+        <v>55</v>
+      </c>
+      <c r="C126" t="s">
+        <v>18</v>
+      </c>
+      <c r="D126" t="s">
+        <v>29</v>
+      </c>
+      <c r="E126" t="s">
+        <v>19</v>
+      </c>
+      <c r="F126" t="s">
+        <v>12</v>
+      </c>
+      <c r="G126" t="s">
         <v>10</v>
       </c>
-      <c r="E31" t="s">
+      <c r="H126" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" t="s">
         <v>28</v>
       </c>
-      <c r="F31" t="s">
+      <c r="B127" t="s">
+        <v>55</v>
+      </c>
+      <c r="C127" t="s">
+        <v>18</v>
+      </c>
+      <c r="D127" t="s">
+        <v>30</v>
+      </c>
+      <c r="E127" t="s">
+        <v>26</v>
+      </c>
+      <c r="F127" t="s">
+        <v>12</v>
+      </c>
+      <c r="G127" t="s">
+        <v>13</v>
+      </c>
+      <c r="H127" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" t="s">
+        <v>28</v>
+      </c>
+      <c r="B128" t="s">
+        <v>55</v>
+      </c>
+      <c r="C128" t="s">
+        <v>36</v>
+      </c>
+      <c r="D128" t="s">
+        <v>29</v>
+      </c>
+      <c r="E128" t="s">
+        <v>17</v>
+      </c>
+      <c r="F128" t="s">
+        <v>16</v>
+      </c>
+      <c r="G128" t="s">
+        <v>37</v>
+      </c>
+      <c r="H128" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" t="s">
+        <v>28</v>
+      </c>
+      <c r="B129" t="s">
+        <v>55</v>
+      </c>
+      <c r="C129" t="s">
+        <v>31</v>
+      </c>
+      <c r="D129" t="s">
+        <v>53</v>
+      </c>
+      <c r="E129" t="s">
+        <v>26</v>
+      </c>
+      <c r="F129" t="s">
+        <v>17</v>
+      </c>
+      <c r="G129" t="s">
+        <v>13</v>
+      </c>
+      <c r="H129" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" t="s">
+        <v>28</v>
+      </c>
+      <c r="B130" t="s">
+        <v>55</v>
+      </c>
+      <c r="C130" t="s">
+        <v>18</v>
+      </c>
+      <c r="D130" t="s">
+        <v>53</v>
+      </c>
+      <c r="E130" t="s">
+        <v>24</v>
+      </c>
+      <c r="F130" t="s">
+        <v>16</v>
+      </c>
+      <c r="G130" t="s">
+        <v>23</v>
+      </c>
+      <c r="H130" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" t="s">
+        <v>28</v>
+      </c>
+      <c r="B131" t="s">
+        <v>55</v>
+      </c>
+      <c r="C131" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131" t="s">
+        <v>33</v>
+      </c>
+      <c r="E131" t="s">
+        <v>20</v>
+      </c>
+      <c r="F131" t="s">
+        <v>12</v>
+      </c>
+      <c r="G131" t="s">
+        <v>23</v>
+      </c>
+      <c r="H131" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132" t="s">
+        <v>55</v>
+      </c>
+      <c r="C132" t="s">
+        <v>37</v>
+      </c>
+      <c r="D132" t="s">
+        <v>53</v>
+      </c>
+      <c r="E132" t="s">
+        <v>16</v>
+      </c>
+      <c r="F132" t="s">
+        <v>15</v>
+      </c>
+      <c r="G132" t="s">
+        <v>26</v>
+      </c>
+      <c r="H132" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" t="s">
+        <v>55</v>
+      </c>
+      <c r="C133" t="s">
+        <v>23</v>
+      </c>
+      <c r="D133" t="s">
+        <v>53</v>
+      </c>
+      <c r="E133" t="s">
+        <v>11</v>
+      </c>
+      <c r="F133" t="s">
+        <v>14</v>
+      </c>
+      <c r="G133" t="s">
+        <v>26</v>
+      </c>
+      <c r="H133" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" t="s">
+        <v>8</v>
+      </c>
+      <c r="B134" t="s">
+        <v>55</v>
+      </c>
+      <c r="C134" t="s">
+        <v>21</v>
+      </c>
+      <c r="D134" t="s">
+        <v>33</v>
+      </c>
+      <c r="E134" t="s">
+        <v>16</v>
+      </c>
+      <c r="F134" t="s">
+        <v>15</v>
+      </c>
+      <c r="G134" t="s">
+        <v>26</v>
+      </c>
+      <c r="H134" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" t="s">
+        <v>8</v>
+      </c>
+      <c r="B135" t="s">
+        <v>55</v>
+      </c>
+      <c r="C135" t="s">
+        <v>37</v>
+      </c>
+      <c r="D135" t="s">
+        <v>53</v>
+      </c>
+      <c r="E135" t="s">
+        <v>11</v>
+      </c>
+      <c r="F135" t="s">
+        <v>13</v>
+      </c>
+      <c r="G135" t="s">
+        <v>26</v>
+      </c>
+      <c r="H135" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" t="s">
+        <v>8</v>
+      </c>
+      <c r="B136" t="s">
+        <v>55</v>
+      </c>
+      <c r="C136" t="s">
+        <v>23</v>
+      </c>
+      <c r="D136" t="s">
+        <v>33</v>
+      </c>
+      <c r="E136" t="s">
+        <v>11</v>
+      </c>
+      <c r="F136" t="s">
+        <v>21</v>
+      </c>
+      <c r="G136" t="s">
+        <v>26</v>
+      </c>
+      <c r="H136" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137" t="s">
+        <v>55</v>
+      </c>
+      <c r="C137" t="s">
+        <v>15</v>
+      </c>
+      <c r="D137" t="s">
+        <v>35</v>
+      </c>
+      <c r="E137" t="s">
+        <v>11</v>
+      </c>
+      <c r="F137" t="s">
+        <v>20</v>
+      </c>
+      <c r="G137" t="s">
+        <v>26</v>
+      </c>
+      <c r="H137" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" t="s">
+        <v>8</v>
+      </c>
+      <c r="B138" t="s">
+        <v>55</v>
+      </c>
+      <c r="C138" t="s">
+        <v>37</v>
+      </c>
+      <c r="D138" t="s">
+        <v>35</v>
+      </c>
+      <c r="E138" t="s">
+        <v>16</v>
+      </c>
+      <c r="F138" t="s">
+        <v>37</v>
+      </c>
+      <c r="G138" t="s">
+        <v>24</v>
+      </c>
+      <c r="H138" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" t="s">
+        <v>8</v>
+      </c>
+      <c r="B139" t="s">
+        <v>55</v>
+      </c>
+      <c r="C139" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139" t="s">
+        <v>33</v>
+      </c>
+      <c r="E139" t="s">
+        <v>11</v>
+      </c>
+      <c r="F139" t="s">
+        <v>15</v>
+      </c>
+      <c r="G139" t="s">
+        <v>26</v>
+      </c>
+      <c r="H139" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" t="s">
+        <v>8</v>
+      </c>
+      <c r="B140" t="s">
+        <v>55</v>
+      </c>
+      <c r="C140" t="s">
+        <v>21</v>
+      </c>
+      <c r="D140" t="s">
+        <v>53</v>
+      </c>
+      <c r="E140" t="s">
+        <v>17</v>
+      </c>
+      <c r="F140" t="s">
+        <v>20</v>
+      </c>
+      <c r="G140" t="s">
+        <v>26</v>
+      </c>
+      <c r="H140" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" t="s">
+        <v>8</v>
+      </c>
+      <c r="B141" t="s">
+        <v>55</v>
+      </c>
+      <c r="C141" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141" t="s">
+        <v>33</v>
+      </c>
+      <c r="E141" t="s">
+        <v>11</v>
+      </c>
+      <c r="F141" t="s">
+        <v>15</v>
+      </c>
+      <c r="G141" t="s">
+        <v>26</v>
+      </c>
+      <c r="H141" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" t="s">
         <v>39</v>
       </c>
-      <c r="G31" t="s">
+      <c r="B142" t="s">
+        <v>55</v>
+      </c>
+      <c r="C142" t="s">
+        <v>17</v>
+      </c>
+      <c r="D142" t="s">
+        <v>20</v>
+      </c>
+      <c r="E142" t="s">
+        <v>22</v>
+      </c>
+      <c r="F142" t="s">
+        <v>15</v>
+      </c>
+      <c r="G142" t="s">
+        <v>23</v>
+      </c>
+      <c r="H142" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" t="s">
+        <v>39</v>
+      </c>
+      <c r="B143" t="s">
+        <v>55</v>
+      </c>
+      <c r="C143" t="s">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s">
+        <v>19</v>
+      </c>
+      <c r="E143" t="s">
+        <v>17</v>
+      </c>
+      <c r="F143" t="s">
+        <v>23</v>
+      </c>
+      <c r="G143" t="s">
+        <v>37</v>
+      </c>
+      <c r="H143" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" t="s">
+        <v>39</v>
+      </c>
+      <c r="B144" t="s">
+        <v>55</v>
+      </c>
+      <c r="C144" t="s">
+        <v>17</v>
+      </c>
+      <c r="D144" t="s">
+        <v>20</v>
+      </c>
+      <c r="E144" t="s">
+        <v>26</v>
+      </c>
+      <c r="F144" t="s">
+        <v>37</v>
+      </c>
+      <c r="G144" t="s">
+        <v>37</v>
+      </c>
+      <c r="H144" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" t="s">
+        <v>39</v>
+      </c>
+      <c r="B145" t="s">
+        <v>55</v>
+      </c>
+      <c r="C145" t="s">
+        <v>17</v>
+      </c>
+      <c r="D145" t="s">
+        <v>26</v>
+      </c>
+      <c r="E145" t="s">
+        <v>24</v>
+      </c>
+      <c r="F145" t="s">
+        <v>21</v>
+      </c>
+      <c r="G145" t="s">
+        <v>23</v>
+      </c>
+      <c r="H145" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" t="s">
+        <v>39</v>
+      </c>
+      <c r="B146" t="s">
+        <v>55</v>
+      </c>
+      <c r="C146" t="s">
+        <v>17</v>
+      </c>
+      <c r="D146" t="s">
+        <v>20</v>
+      </c>
+      <c r="E146" t="s">
+        <v>26</v>
+      </c>
+      <c r="F146" t="s">
+        <v>37</v>
+      </c>
+      <c r="G146" t="s">
+        <v>13</v>
+      </c>
+      <c r="H146" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" t="s">
+        <v>39</v>
+      </c>
+      <c r="B147" t="s">
+        <v>55</v>
+      </c>
+      <c r="C147" t="s">
+        <v>11</v>
+      </c>
+      <c r="D147" t="s">
+        <v>26</v>
+      </c>
+      <c r="E147" t="s">
+        <v>17</v>
+      </c>
+      <c r="F147" t="s">
+        <v>15</v>
+      </c>
+      <c r="G147" t="s">
+        <v>13</v>
+      </c>
+      <c r="H147" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" t="s">
+        <v>39</v>
+      </c>
+      <c r="B148" t="s">
+        <v>55</v>
+      </c>
+      <c r="C148" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148" t="s">
+        <v>20</v>
+      </c>
+      <c r="E148" t="s">
+        <v>26</v>
+      </c>
+      <c r="F148" t="s">
+        <v>37</v>
+      </c>
+      <c r="G148" t="s">
+        <v>23</v>
+      </c>
+      <c r="H148" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" t="s">
+        <v>39</v>
+      </c>
+      <c r="B149" t="s">
+        <v>55</v>
+      </c>
+      <c r="C149" t="s">
+        <v>17</v>
+      </c>
+      <c r="D149" t="s">
+        <v>26</v>
+      </c>
+      <c r="E149" t="s">
+        <v>17</v>
+      </c>
+      <c r="F149" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" t="s">
+        <v>23</v>
+      </c>
+      <c r="H149" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" t="s">
+        <v>39</v>
+      </c>
+      <c r="B150" t="s">
+        <v>55</v>
+      </c>
+      <c r="C150" t="s">
+        <v>17</v>
+      </c>
+      <c r="D150" t="s">
+        <v>26</v>
+      </c>
+      <c r="E150" t="s">
+        <v>11</v>
+      </c>
+      <c r="F150" t="s">
+        <v>36</v>
+      </c>
+      <c r="G150" t="s">
+        <v>23</v>
+      </c>
+      <c r="H150" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" t="s">
+        <v>39</v>
+      </c>
+      <c r="B151" t="s">
+        <v>55</v>
+      </c>
+      <c r="C151" t="s">
+        <v>17</v>
+      </c>
+      <c r="D151" t="s">
+        <v>26</v>
+      </c>
+      <c r="E151" t="s">
+        <v>24</v>
+      </c>
+      <c r="F151" t="s">
+        <v>36</v>
+      </c>
+      <c r="G151" t="s">
+        <v>23</v>
+      </c>
+      <c r="H151" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" t="s">
         <v>28</v>
       </c>
-      <c r="H31" t="s">
+      <c r="B152" t="s">
+        <v>56</v>
+      </c>
+      <c r="C152" t="s">
+        <v>25</v>
+      </c>
+      <c r="D152" t="s">
+        <v>27</v>
+      </c>
+      <c r="E152" t="s">
+        <v>21</v>
+      </c>
+      <c r="F152" t="s">
+        <v>34</v>
+      </c>
+      <c r="G152" t="s">
+        <v>21</v>
+      </c>
+      <c r="H152" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" t="s">
+        <v>28</v>
+      </c>
+      <c r="B153" t="s">
+        <v>56</v>
+      </c>
+      <c r="C153" t="s">
+        <v>31</v>
+      </c>
+      <c r="D153" t="s">
+        <v>27</v>
+      </c>
+      <c r="E153" t="s">
+        <v>21</v>
+      </c>
+      <c r="F153" t="s">
+        <v>23</v>
+      </c>
+      <c r="G153" t="s">
+        <v>10</v>
+      </c>
+      <c r="H153" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" t="s">
+        <v>28</v>
+      </c>
+      <c r="B154" t="s">
+        <v>56</v>
+      </c>
+      <c r="C154" t="s">
+        <v>31</v>
+      </c>
+      <c r="D154" t="s">
+        <v>27</v>
+      </c>
+      <c r="E154" t="s">
+        <v>21</v>
+      </c>
+      <c r="F154" t="s">
+        <v>15</v>
+      </c>
+      <c r="G154" t="s">
+        <v>10</v>
+      </c>
+      <c r="H154" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" t="s">
+        <v>28</v>
+      </c>
+      <c r="B155" t="s">
+        <v>56</v>
+      </c>
+      <c r="C155" t="s">
+        <v>31</v>
+      </c>
+      <c r="D155" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" t="s">
+        <v>37</v>
+      </c>
+      <c r="F155" t="s">
+        <v>13</v>
+      </c>
+      <c r="G155" t="s">
+        <v>21</v>
+      </c>
+      <c r="H155" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" t="s">
+        <v>28</v>
+      </c>
+      <c r="B156" t="s">
+        <v>56</v>
+      </c>
+      <c r="C156" t="s">
+        <v>43</v>
+      </c>
+      <c r="D156" t="s">
+        <v>27</v>
+      </c>
+      <c r="E156" t="s">
+        <v>21</v>
+      </c>
+      <c r="F156" t="s">
+        <v>15</v>
+      </c>
+      <c r="G156" t="s">
+        <v>15</v>
+      </c>
+      <c r="H156" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" t="s">
+        <v>28</v>
+      </c>
+      <c r="B157" t="s">
+        <v>56</v>
+      </c>
+      <c r="C157" t="s">
+        <v>31</v>
+      </c>
+      <c r="D157" t="s">
+        <v>11</v>
+      </c>
+      <c r="E157" t="s">
+        <v>15</v>
+      </c>
+      <c r="F157" t="s">
+        <v>15</v>
+      </c>
+      <c r="G157" t="s">
+        <v>37</v>
+      </c>
+      <c r="H157" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" t="s">
+        <v>28</v>
+      </c>
+      <c r="B158" t="s">
+        <v>56</v>
+      </c>
+      <c r="C158" t="s">
+        <v>25</v>
+      </c>
+      <c r="D158" t="s">
+        <v>22</v>
+      </c>
+      <c r="E158" t="s">
+        <v>21</v>
+      </c>
+      <c r="F158" t="s">
+        <v>15</v>
+      </c>
+      <c r="G158" t="s">
+        <v>21</v>
+      </c>
+      <c r="H158" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" t="s">
+        <v>28</v>
+      </c>
+      <c r="B159" t="s">
+        <v>56</v>
+      </c>
+      <c r="C159" t="s">
+        <v>25</v>
+      </c>
+      <c r="D159" t="s">
+        <v>27</v>
+      </c>
+      <c r="E159" t="s">
+        <v>15</v>
+      </c>
+      <c r="F159" t="s">
+        <v>15</v>
+      </c>
+      <c r="G159" t="s">
+        <v>23</v>
+      </c>
+      <c r="H159" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" t="s">
+        <v>28</v>
+      </c>
+      <c r="B160" t="s">
+        <v>56</v>
+      </c>
+      <c r="C160" t="s">
+        <v>25</v>
+      </c>
+      <c r="D160" t="s">
+        <v>27</v>
+      </c>
+      <c r="E160" t="s">
+        <v>15</v>
+      </c>
+      <c r="F160" t="s">
+        <v>15</v>
+      </c>
+      <c r="G160" t="s">
+        <v>37</v>
+      </c>
+      <c r="H160" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" t="s">
+        <v>28</v>
+      </c>
+      <c r="B161" t="s">
+        <v>56</v>
+      </c>
+      <c r="C161" t="s">
+        <v>31</v>
+      </c>
+      <c r="D161" t="s">
+        <v>32</v>
+      </c>
+      <c r="E161" t="s">
+        <v>21</v>
+      </c>
+      <c r="F161" t="s">
+        <v>25</v>
+      </c>
+      <c r="G161" t="s">
+        <v>15</v>
+      </c>
+      <c r="H161" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" t="s">
+        <v>8</v>
+      </c>
+      <c r="B162" t="s">
+        <v>56</v>
+      </c>
+      <c r="C162" t="s">
+        <v>25</v>
+      </c>
+      <c r="D162" t="s">
+        <v>29</v>
+      </c>
+      <c r="E162" t="s">
+        <v>26</v>
+      </c>
+      <c r="F162" t="s">
+        <v>14</v>
+      </c>
+      <c r="G162" t="s">
+        <v>14</v>
+      </c>
+      <c r="H162" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" t="s">
+        <v>8</v>
+      </c>
+      <c r="B163" t="s">
+        <v>56</v>
+      </c>
+      <c r="C163" t="s">
+        <v>36</v>
+      </c>
+      <c r="D163" t="s">
+        <v>29</v>
+      </c>
+      <c r="E163" t="s">
+        <v>26</v>
+      </c>
+      <c r="F163" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" t="s">
+        <v>19</v>
+      </c>
+      <c r="H163" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" t="s">
+        <v>8</v>
+      </c>
+      <c r="B164" t="s">
+        <v>56</v>
+      </c>
+      <c r="C164" t="s">
+        <v>25</v>
+      </c>
+      <c r="D164" t="s">
+        <v>33</v>
+      </c>
+      <c r="E164" t="s">
+        <v>26</v>
+      </c>
+      <c r="F164" t="s">
+        <v>14</v>
+      </c>
+      <c r="G164" t="s">
+        <v>10</v>
+      </c>
+      <c r="H164" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" t="s">
+        <v>8</v>
+      </c>
+      <c r="B165" t="s">
+        <v>56</v>
+      </c>
+      <c r="C165" t="s">
+        <v>36</v>
+      </c>
+      <c r="D165" t="s">
+        <v>29</v>
+      </c>
+      <c r="E165" t="s">
+        <v>26</v>
+      </c>
+      <c r="F165" t="s">
+        <v>20</v>
+      </c>
+      <c r="G165" t="s">
+        <v>14</v>
+      </c>
+      <c r="H165" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" t="s">
+        <v>8</v>
+      </c>
+      <c r="B166" t="s">
+        <v>56</v>
+      </c>
+      <c r="C166" t="s">
+        <v>36</v>
+      </c>
+      <c r="D166" t="s">
+        <v>29</v>
+      </c>
+      <c r="E166" t="s">
+        <v>26</v>
+      </c>
+      <c r="F166" t="s">
+        <v>17</v>
+      </c>
+      <c r="G166" t="s">
+        <v>19</v>
+      </c>
+      <c r="H166" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" t="s">
+        <v>8</v>
+      </c>
+      <c r="B167" t="s">
+        <v>56</v>
+      </c>
+      <c r="C167" t="s">
+        <v>25</v>
+      </c>
+      <c r="D167" t="s">
+        <v>29</v>
+      </c>
+      <c r="E167" t="s">
+        <v>26</v>
+      </c>
+      <c r="F167" t="s">
+        <v>19</v>
+      </c>
+      <c r="G167" t="s">
+        <v>10</v>
+      </c>
+      <c r="H167" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" t="s">
+        <v>8</v>
+      </c>
+      <c r="B168" t="s">
+        <v>56</v>
+      </c>
+      <c r="C168" t="s">
+        <v>25</v>
+      </c>
+      <c r="D168" t="s">
+        <v>33</v>
+      </c>
+      <c r="E168" t="s">
+        <v>11</v>
+      </c>
+      <c r="F168" t="s">
+        <v>26</v>
+      </c>
+      <c r="G168" t="s">
+        <v>14</v>
+      </c>
+      <c r="H168" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" t="s">
+        <v>8</v>
+      </c>
+      <c r="B169" t="s">
+        <v>56</v>
+      </c>
+      <c r="C169" t="s">
+        <v>25</v>
+      </c>
+      <c r="D169" t="s">
+        <v>29</v>
+      </c>
+      <c r="E169" t="s">
+        <v>20</v>
+      </c>
+      <c r="F169" t="s">
+        <v>21</v>
+      </c>
+      <c r="G169" t="s">
+        <v>19</v>
+      </c>
+      <c r="H169" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" t="s">
+        <v>8</v>
+      </c>
+      <c r="B170" t="s">
+        <v>56</v>
+      </c>
+      <c r="C170" t="s">
+        <v>25</v>
+      </c>
+      <c r="D170" t="s">
+        <v>29</v>
+      </c>
+      <c r="E170" t="s">
+        <v>17</v>
+      </c>
+      <c r="F170" t="s">
+        <v>24</v>
+      </c>
+      <c r="G170" t="s">
+        <v>19</v>
+      </c>
+      <c r="H170" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" t="s">
+        <v>8</v>
+      </c>
+      <c r="B171" t="s">
+        <v>56</v>
+      </c>
+      <c r="C171" t="s">
+        <v>34</v>
+      </c>
+      <c r="D171" t="s">
+        <v>29</v>
+      </c>
+      <c r="E171" t="s">
+        <v>26</v>
+      </c>
+      <c r="F171" t="s">
+        <v>24</v>
+      </c>
+      <c r="G171" t="s">
+        <v>14</v>
+      </c>
+      <c r="H171" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" t="s">
+        <v>39</v>
+      </c>
+      <c r="B172" t="s">
+        <v>56</v>
+      </c>
+      <c r="C172" t="s">
+        <v>34</v>
+      </c>
+      <c r="D172" t="s">
+        <v>51</v>
+      </c>
+      <c r="E172" t="s">
+        <v>14</v>
+      </c>
+      <c r="F172" t="s">
+        <v>44</v>
+      </c>
+      <c r="G172" t="s">
+        <v>10</v>
+      </c>
+      <c r="H172" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" t="s">
+        <v>39</v>
+      </c>
+      <c r="B173" t="s">
+        <v>56</v>
+      </c>
+      <c r="C173" t="s">
+        <v>18</v>
+      </c>
+      <c r="D173" t="s">
+        <v>57</v>
+      </c>
+      <c r="E173" t="s">
+        <v>24</v>
+      </c>
+      <c r="F173" t="s">
+        <v>43</v>
+      </c>
+      <c r="G173" t="s">
+        <v>14</v>
+      </c>
+      <c r="H173" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" t="s">
+        <v>39</v>
+      </c>
+      <c r="B174" t="s">
+        <v>56</v>
+      </c>
+      <c r="C174" t="s">
+        <v>13</v>
+      </c>
+      <c r="D174" t="s">
+        <v>57</v>
+      </c>
+      <c r="E174" t="s">
+        <v>24</v>
+      </c>
+      <c r="F174" t="s">
+        <v>18</v>
+      </c>
+      <c r="G174" t="s">
+        <v>10</v>
+      </c>
+      <c r="H174" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" t="s">
+        <v>39</v>
+      </c>
+      <c r="B175" t="s">
+        <v>56</v>
+      </c>
+      <c r="C175" t="s">
+        <v>36</v>
+      </c>
+      <c r="D175" t="s">
+        <v>57</v>
+      </c>
+      <c r="E175" t="s">
+        <v>14</v>
+      </c>
+      <c r="F175" t="s">
+        <v>23</v>
+      </c>
+      <c r="G175" t="s">
+        <v>21</v>
+      </c>
+      <c r="H175" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" t="s">
+        <v>39</v>
+      </c>
+      <c r="B176" t="s">
+        <v>56</v>
+      </c>
+      <c r="C176" t="s">
+        <v>31</v>
+      </c>
+      <c r="D176" t="s">
+        <v>57</v>
+      </c>
+      <c r="E176" t="s">
+        <v>24</v>
+      </c>
+      <c r="F176" t="s">
+        <v>44</v>
+      </c>
+      <c r="G176" t="s">
+        <v>21</v>
+      </c>
+      <c r="H176" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" t="s">
+        <v>39</v>
+      </c>
+      <c r="B177" t="s">
+        <v>56</v>
+      </c>
+      <c r="C177" t="s">
+        <v>36</v>
+      </c>
+      <c r="D177" t="s">
+        <v>50</v>
+      </c>
+      <c r="E177" t="s">
+        <v>19</v>
+      </c>
+      <c r="F177" t="s">
+        <v>25</v>
+      </c>
+      <c r="G177" t="s">
+        <v>15</v>
+      </c>
+      <c r="H177" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" t="s">
+        <v>39</v>
+      </c>
+      <c r="B178" t="s">
+        <v>56</v>
+      </c>
+      <c r="C178" t="s">
+        <v>34</v>
+      </c>
+      <c r="D178" t="s">
+        <v>57</v>
+      </c>
+      <c r="E178" t="s">
+        <v>19</v>
+      </c>
+      <c r="F178" t="s">
+        <v>18</v>
+      </c>
+      <c r="G178" t="s">
+        <v>10</v>
+      </c>
+      <c r="H178" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" t="s">
+        <v>39</v>
+      </c>
+      <c r="B179" t="s">
+        <v>56</v>
+      </c>
+      <c r="C179" t="s">
+        <v>23</v>
+      </c>
+      <c r="D179" t="s">
+        <v>57</v>
+      </c>
+      <c r="E179" t="s">
+        <v>19</v>
+      </c>
+      <c r="F179" t="s">
+        <v>18</v>
+      </c>
+      <c r="G179" t="s">
+        <v>15</v>
+      </c>
+      <c r="H179" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" t="s">
+        <v>39</v>
+      </c>
+      <c r="B180" t="s">
+        <v>56</v>
+      </c>
+      <c r="C180" t="s">
+        <v>23</v>
+      </c>
+      <c r="D180" t="s">
+        <v>57</v>
+      </c>
+      <c r="E180" t="s">
+        <v>10</v>
+      </c>
+      <c r="F180" t="s">
+        <v>13</v>
+      </c>
+      <c r="G180" t="s">
+        <v>14</v>
+      </c>
+      <c r="H180" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" t="s">
+        <v>39</v>
+      </c>
+      <c r="B181" t="s">
+        <v>56</v>
+      </c>
+      <c r="C181" t="s">
+        <v>23</v>
+      </c>
+      <c r="D181" t="s">
+        <v>57</v>
+      </c>
+      <c r="E181" t="s">
+        <v>14</v>
+      </c>
+      <c r="F181" t="s">
+        <v>44</v>
+      </c>
+      <c r="G181" t="s">
+        <v>14</v>
+      </c>
+      <c r="H181" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Methods/testPoints.xlsx
+++ b/Methods/testPoints.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Average" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Variance" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="218">
   <si>
     <t xml:space="preserve">Real_X</t>
   </si>
@@ -465,6 +466,216 @@
   </si>
   <si>
     <t xml:space="preserve">-47.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11</t>
   </si>
 </sst>
 </file>
@@ -567,8 +778,8 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A139" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A172" activeCellId="0" sqref="A172"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A157" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F173" activeCellId="0" sqref="F173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5309,19 +5520,19 @@
   </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="16.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.36"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -5817,6 +6028,527 @@
       </c>
       <c r="H19" s="0" t="s">
         <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
